--- a/data/trans_bre/APOYO_SOCIAL_DUKE_AFEC_CAT-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/APOYO_SOCIAL_DUKE_AFEC_CAT-Estudios-trans_bre.xlsx
@@ -604,7 +604,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>7,89</t>
+          <t>10,11</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -619,7 +619,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>11,77%</t>
+          <t>15,38%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -642,12 +642,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,12; 15,69</t>
+          <t>1,73; 18,66</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-6,42; 7,88</t>
+          <t>-6,24; 8,41</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -657,12 +657,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,39; 25,18</t>
+          <t>2,58; 31,55</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-9,19; 12,9</t>
+          <t>-8,73; 13,97</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -684,7 +684,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1,86</t>
+          <t>1,72</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -699,7 +699,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>2,64%</t>
+          <t>2,44%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -722,12 +722,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,86; 5,49</t>
+          <t>-2,35; 5,85</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,08; 38,87</t>
+          <t>-1,42; 37,63</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -737,12 +737,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-2,58; 7,89</t>
+          <t>-3,2; 8,63</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-2,74; 114,75</t>
+          <t>-2,75; 111,21</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -764,7 +764,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>5,89</t>
+          <t>8,35</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>8,56%</t>
+          <t>12,28%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -802,12 +802,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,32; 11,61</t>
+          <t>1,91; 14,5</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,34; 6,52</t>
+          <t>-6,56; 6,36</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -817,12 +817,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,45; 17,86</t>
+          <t>2,62; 22,44</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-11,81; 14,53</t>
+          <t>-12,58; 14,02</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -844,7 +844,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>3,72</t>
+          <t>4,65</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -859,7 +859,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>5,34%</t>
+          <t>6,69%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -882,12 +882,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,71; 6,73</t>
+          <t>1,24; 7,6</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,0; 29,12</t>
+          <t>-0,27; 30,55</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -897,12 +897,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,98; 9,94</t>
+          <t>1,7; 11,15</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-1,37; 77,51</t>
+          <t>-0,37; 91,81</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">

--- a/data/trans_bre/APOYO_SOCIAL_DUKE_AFEC_CAT-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/APOYO_SOCIAL_DUKE_AFEC_CAT-Estudios-trans_bre.xlsx
@@ -552,32 +552,32 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
         </is>
       </c>
     </row>
@@ -604,32 +604,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>1,61</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>1,8</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>10,11</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>0,69</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>1,8</t>
-        </is>
-      </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>2,44%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>3,18%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>15,38%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>1,05%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>3,18%</t>
         </is>
       </c>
     </row>
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>-4,44; 8,61</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>-4,15; 8,72</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
           <t>1,73; 18,66</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-6,24; 8,41</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-4,15; 8,72</t>
-        </is>
-      </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
+          <t>-6,47; 14,11</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>-7,02; 16,74</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
           <t>2,58; 31,55</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-8,73; 13,97</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-7,02; 16,74</t>
         </is>
       </c>
     </row>
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>-0,54</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>-0,88</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>1,72</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>13,85</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-0,88</t>
-        </is>
-      </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>-0,88%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>-1,82%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>2,44%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>28,41%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-1,82%</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>-4,91; 3,8</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>-4,56; 2,98</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>-2,35; 5,85</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-1,42; 37,63</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-4,56; 2,98</t>
-        </is>
-      </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
+          <t>-7,71; 6,56</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>-8,94; 6,29</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>-3,2; 8,63</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-2,75; 111,21</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-8,94; 6,29</t>
         </is>
       </c>
     </row>
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>-0,86</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>-3,93</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>8,35</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-0,11</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-3,93</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>-1,71%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>-8,01%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>12,28%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-0,23%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-8,01%</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>-6,94; 5,21</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>-9,76; 1,68</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
           <t>1,91; 14,5</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-6,56; 6,36</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-9,76; 1,68</t>
-        </is>
-      </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>-13,15; 11,22</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>-18,87; 3,53</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>2,62; 22,44</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-12,58; 14,02</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-18,87; 3,53</t>
         </is>
       </c>
     </row>
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>0,4</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>-1,05</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>4,65</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>9,9</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-1,05</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>0,68%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>-2,1%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>6,69%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>19,49%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>-2,1%</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>-2,77; 3,43</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>-3,92; 1,98</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
           <t>1,24; 7,6</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-0,27; 30,55</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-3,92; 1,98</t>
-        </is>
-      </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
+          <t>-4,51; 6,02</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>-7,67; 4,11</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
           <t>1,7; 11,15</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-0,37; 91,81</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-7,67; 4,11</t>
         </is>
       </c>
     </row>
